--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkienError.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkienError.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Intel Pentium G3220</t>
-  </si>
-  <si>
-    <t>Intel Core 2 Quad Q6700</t>
   </si>
   <si>
     <t>Intel Core i7-3970X Extreme Edition</t>
@@ -476,7 +473,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +606,13 @@
       <c r="C11" s="1">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>29</v>
       </c>
@@ -632,7 +625,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>30</v>
@@ -646,7 +639,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>31</v>
@@ -660,7 +653,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>32</v>
